--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.08109914857993</v>
+        <v>7.546074999999999</v>
       </c>
       <c r="H2">
-        <v>7.08109914857993</v>
+        <v>22.638225</v>
       </c>
       <c r="I2">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="J2">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N2">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q2">
-        <v>413.1729823038223</v>
+        <v>445.4369090248333</v>
       </c>
       <c r="R2">
-        <v>413.1729823038223</v>
+        <v>4008.9321812235</v>
       </c>
       <c r="S2">
-        <v>0.0025078076228483</v>
+        <v>0.002647749364794165</v>
       </c>
       <c r="T2">
-        <v>0.0025078076228483</v>
+        <v>0.002647749364794166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.08109914857993</v>
+        <v>7.546074999999999</v>
       </c>
       <c r="H3">
-        <v>7.08109914857993</v>
+        <v>22.638225</v>
       </c>
       <c r="I3">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="J3">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N3">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q3">
-        <v>500.6964104519635</v>
+        <v>536.8513921993916</v>
       </c>
       <c r="R3">
-        <v>500.6964104519635</v>
+        <v>4831.662529794525</v>
       </c>
       <c r="S3">
-        <v>0.003039042552740988</v>
+        <v>0.003191131906416754</v>
       </c>
       <c r="T3">
-        <v>0.003039042552740988</v>
+        <v>0.003191131906416755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.08109914857993</v>
+        <v>7.546074999999999</v>
       </c>
       <c r="H4">
-        <v>7.08109914857993</v>
+        <v>22.638225</v>
       </c>
       <c r="I4">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="J4">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N4">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q4">
-        <v>481.8517905349205</v>
+        <v>516.1728703000999</v>
       </c>
       <c r="R4">
-        <v>481.8517905349205</v>
+        <v>4645.555832700899</v>
       </c>
       <c r="S4">
-        <v>0.002924662659810602</v>
+        <v>0.003068215412263641</v>
       </c>
       <c r="T4">
-        <v>0.002924662659810602</v>
+        <v>0.003068215412263641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.08109914857993</v>
+        <v>7.546074999999999</v>
       </c>
       <c r="H5">
-        <v>7.08109914857993</v>
+        <v>22.638225</v>
       </c>
       <c r="I5">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="J5">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N5">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q5">
-        <v>526.2561700799612</v>
+        <v>561.029343495975</v>
       </c>
       <c r="R5">
-        <v>526.2561700799612</v>
+        <v>5049.264091463775</v>
       </c>
       <c r="S5">
-        <v>0.003194180867148314</v>
+        <v>0.003334849577517925</v>
       </c>
       <c r="T5">
-        <v>0.003194180867148314</v>
+        <v>0.003334849577517925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.08109914857993</v>
+        <v>7.546074999999999</v>
       </c>
       <c r="H6">
-        <v>7.08109914857993</v>
+        <v>22.638225</v>
       </c>
       <c r="I6">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="J6">
-        <v>0.0124784590672525</v>
+        <v>0.01315991601134186</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N6">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q6">
-        <v>133.9068780988564</v>
+        <v>154.4321428647416</v>
       </c>
       <c r="R6">
-        <v>133.9068780988564</v>
+        <v>1389.889285782675</v>
       </c>
       <c r="S6">
-        <v>0.0008127653647043017</v>
+        <v>0.0009179697503493707</v>
       </c>
       <c r="T6">
-        <v>0.0008127653647043017</v>
+        <v>0.0009179697503493708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.0378199280222</v>
+        <v>20.13559733333333</v>
       </c>
       <c r="H7">
-        <v>20.0378199280222</v>
+        <v>60.406792</v>
       </c>
       <c r="I7">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="J7">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N7">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q7">
-        <v>1169.180891950682</v>
+        <v>1188.583235328124</v>
       </c>
       <c r="R7">
-        <v>1169.180891950682</v>
+        <v>10697.24911795312</v>
       </c>
       <c r="S7">
-        <v>0.007096496815869774</v>
+        <v>0.007065131879696986</v>
       </c>
       <c r="T7">
-        <v>0.007096496815869774</v>
+        <v>0.007065131879696986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.0378199280222</v>
+        <v>20.13559733333333</v>
       </c>
       <c r="H8">
-        <v>20.0378199280222</v>
+        <v>60.406792</v>
       </c>
       <c r="I8">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="J8">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N8">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q8">
-        <v>1416.851296772983</v>
+        <v>1432.509412001121</v>
       </c>
       <c r="R8">
-        <v>1416.851296772983</v>
+        <v>12892.58470801009</v>
       </c>
       <c r="S8">
-        <v>0.008599764831372697</v>
+        <v>0.008515068708588255</v>
       </c>
       <c r="T8">
-        <v>0.008599764831372697</v>
+        <v>0.008515068708588256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.0378199280222</v>
+        <v>20.13559733333333</v>
       </c>
       <c r="H9">
-        <v>20.0378199280222</v>
+        <v>60.406792</v>
       </c>
       <c r="I9">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="J9">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N9">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q9">
-        <v>1363.525521693918</v>
+        <v>1377.331801069259</v>
       </c>
       <c r="R9">
-        <v>1363.525521693918</v>
+        <v>12395.98620962333</v>
       </c>
       <c r="S9">
-        <v>0.008276097043387387</v>
+        <v>0.008187084023584182</v>
       </c>
       <c r="T9">
-        <v>0.008276097043387387</v>
+        <v>0.008187084023584182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.0378199280222</v>
+        <v>20.13559733333333</v>
       </c>
       <c r="H10">
-        <v>20.0378199280222</v>
+        <v>60.406792</v>
       </c>
       <c r="I10">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="J10">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N10">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q10">
-        <v>1489.179313946992</v>
+        <v>1497.024738399672</v>
       </c>
       <c r="R10">
-        <v>1489.179313946992</v>
+        <v>13473.22264559705</v>
       </c>
       <c r="S10">
-        <v>0.009038769220776607</v>
+        <v>0.00889855829158042</v>
       </c>
       <c r="T10">
-        <v>0.009038769220776607</v>
+        <v>0.00889855829158042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.0378199280222</v>
+        <v>20.13559733333333</v>
       </c>
       <c r="H11">
-        <v>20.0378199280222</v>
+        <v>60.406792</v>
       </c>
       <c r="I11">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="J11">
-        <v>0.03531105984004556</v>
+        <v>0.03511531090598301</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N11">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O11">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P11">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q11">
-        <v>378.9244938063893</v>
+        <v>412.0795836309929</v>
       </c>
       <c r="R11">
-        <v>378.9244938063893</v>
+        <v>3708.716252678936</v>
       </c>
       <c r="S11">
-        <v>0.002299931928639095</v>
+        <v>0.002449468002533165</v>
       </c>
       <c r="T11">
-        <v>0.002299931928639095</v>
+        <v>0.002449468002533165</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>256.437480801373</v>
+        <v>257.309204</v>
       </c>
       <c r="H12">
-        <v>256.437480801373</v>
+        <v>771.927612</v>
       </c>
       <c r="I12">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="J12">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N12">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O12">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P12">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q12">
-        <v>14962.79553414115</v>
+        <v>15188.69299515315</v>
       </c>
       <c r="R12">
-        <v>14962.79553414115</v>
+        <v>136698.2369563783</v>
       </c>
       <c r="S12">
-        <v>0.09081865055747264</v>
+        <v>0.09028405912301327</v>
       </c>
       <c r="T12">
-        <v>0.09081865055747264</v>
+        <v>0.09028405912301327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>256.437480801373</v>
+        <v>257.309204</v>
       </c>
       <c r="H13">
-        <v>256.437480801373</v>
+        <v>771.927612</v>
       </c>
       <c r="I13">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="J13">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N13">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O13">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P13">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q13">
-        <v>18132.40055653522</v>
+        <v>18305.78206459878</v>
       </c>
       <c r="R13">
-        <v>18132.40055653522</v>
+        <v>164752.0385813891</v>
       </c>
       <c r="S13">
-        <v>0.1100569840812582</v>
+        <v>0.1088125430371547</v>
       </c>
       <c r="T13">
-        <v>0.1100569840812582</v>
+        <v>0.1088125430371548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>256.437480801373</v>
+        <v>257.309204</v>
       </c>
       <c r="H14">
-        <v>256.437480801373</v>
+        <v>771.927612</v>
       </c>
       <c r="I14">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="J14">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N14">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O14">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P14">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q14">
-        <v>17449.95468806365</v>
+        <v>17600.67722402891</v>
       </c>
       <c r="R14">
-        <v>17449.95468806365</v>
+        <v>158406.0950162602</v>
       </c>
       <c r="S14">
-        <v>0.1059147893482158</v>
+        <v>0.1046212852946849</v>
       </c>
       <c r="T14">
-        <v>0.1059147893482158</v>
+        <v>0.1046212852946849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>256.437480801373</v>
+        <v>257.309204</v>
       </c>
       <c r="H15">
-        <v>256.437480801373</v>
+        <v>771.927612</v>
       </c>
       <c r="I15">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="J15">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N15">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O15">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P15">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q15">
-        <v>19058.03091862481</v>
+        <v>19130.21190428029</v>
       </c>
       <c r="R15">
-        <v>19058.03091862481</v>
+        <v>172171.9071385226</v>
       </c>
       <c r="S15">
-        <v>0.1156752190032144</v>
+        <v>0.1137130879630634</v>
       </c>
       <c r="T15">
-        <v>0.1156752190032144</v>
+        <v>0.1137130879630634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>256.437480801373</v>
+        <v>257.309204</v>
       </c>
       <c r="H16">
-        <v>256.437480801373</v>
+        <v>771.927612</v>
       </c>
       <c r="I16">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="J16">
-        <v>0.4518994213110279</v>
+        <v>0.4487322897778286</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N16">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O16">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P16">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q16">
-        <v>4849.352023058977</v>
+        <v>5265.891440588777</v>
       </c>
       <c r="R16">
-        <v>4849.352023058977</v>
+        <v>47393.02296529899</v>
       </c>
       <c r="S16">
-        <v>0.0294337783208668</v>
+        <v>0.03130131435991231</v>
       </c>
       <c r="T16">
-        <v>0.0294337783208668</v>
+        <v>0.03130131435991231</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>281.164152916603</v>
+        <v>285.6053413333333</v>
       </c>
       <c r="H17">
-        <v>281.164152916603</v>
+        <v>856.816024</v>
       </c>
       <c r="I17">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="J17">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N17">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O17">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P17">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q17">
-        <v>16405.56489041364</v>
+        <v>16858.98436531607</v>
       </c>
       <c r="R17">
-        <v>16405.56489041364</v>
+        <v>151730.8592878446</v>
       </c>
       <c r="S17">
-        <v>0.09957572845133039</v>
+        <v>0.1002125424273088</v>
       </c>
       <c r="T17">
-        <v>0.09957572845133039</v>
+        <v>0.1002125424273088</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>281.164152916603</v>
+        <v>285.6053413333333</v>
       </c>
       <c r="H18">
-        <v>281.164152916603</v>
+        <v>856.816024</v>
       </c>
       <c r="I18">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="J18">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N18">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O18">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P18">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q18">
-        <v>19880.79522108403</v>
+        <v>20318.85783196993</v>
       </c>
       <c r="R18">
-        <v>19880.79522108403</v>
+        <v>182869.7204877294</v>
       </c>
       <c r="S18">
-        <v>0.1206690948806004</v>
+        <v>0.1207785924963438</v>
       </c>
       <c r="T18">
-        <v>0.1206690948806004</v>
+        <v>0.1207785924963439</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>281.164152916603</v>
+        <v>285.6053413333333</v>
       </c>
       <c r="H19">
-        <v>281.164152916603</v>
+        <v>856.816024</v>
       </c>
       <c r="I19">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="J19">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N19">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O19">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P19">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q19">
-        <v>19132.54533998001</v>
+        <v>19536.21303910529</v>
       </c>
       <c r="R19">
-        <v>19132.54533998001</v>
+        <v>175825.9173519476</v>
       </c>
       <c r="S19">
-        <v>0.1161274940596441</v>
+        <v>0.1161264246782269</v>
       </c>
       <c r="T19">
-        <v>0.1161274940596441</v>
+        <v>0.1161264246782269</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>281.164152916603</v>
+        <v>285.6053413333333</v>
       </c>
       <c r="H20">
-        <v>281.164152916603</v>
+        <v>856.816024</v>
       </c>
       <c r="I20">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="J20">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N20">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O20">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P20">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q20">
-        <v>20895.67836475519</v>
+        <v>21233.94972183339</v>
       </c>
       <c r="R20">
-        <v>20895.67836475519</v>
+        <v>191105.5474965005</v>
       </c>
       <c r="S20">
-        <v>0.1268290612699982</v>
+        <v>0.1262180473799067</v>
       </c>
       <c r="T20">
-        <v>0.1268290612699982</v>
+        <v>0.1262180473799067</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>281.164152916603</v>
+        <v>285.6053413333333</v>
       </c>
       <c r="H21">
-        <v>281.164152916603</v>
+        <v>856.816024</v>
       </c>
       <c r="I21">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="J21">
-        <v>0.4954732732491341</v>
+        <v>0.4980791079252843</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N21">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O21">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P21">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q21">
-        <v>5316.944892364939</v>
+        <v>5844.978333202711</v>
       </c>
       <c r="R21">
-        <v>5316.944892364939</v>
+        <v>52604.80499882439</v>
       </c>
       <c r="S21">
-        <v>0.03227189458756092</v>
+        <v>0.03474350094349802</v>
       </c>
       <c r="T21">
-        <v>0.03227189458756092</v>
+        <v>0.03474350094349802</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.74527855658726</v>
+        <v>2.817396333333333</v>
       </c>
       <c r="H22">
-        <v>2.74527855658726</v>
+        <v>8.452189000000001</v>
       </c>
       <c r="I22">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="J22">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N22">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O22">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P22">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q22">
-        <v>160.1834552348222</v>
+        <v>166.3079566818378</v>
       </c>
       <c r="R22">
-        <v>160.1834552348222</v>
+        <v>1496.77161013654</v>
       </c>
       <c r="S22">
-        <v>0.0009722544970200252</v>
+        <v>0.0009885615173393779</v>
       </c>
       <c r="T22">
-        <v>0.0009722544970200252</v>
+        <v>0.0009885615173393779</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.74527855658726</v>
+        <v>2.817396333333333</v>
       </c>
       <c r="H23">
-        <v>2.74527855658726</v>
+        <v>8.452189000000001</v>
       </c>
       <c r="I23">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="J23">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N23">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O23">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P23">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q23">
-        <v>194.1155024286938</v>
+        <v>200.4383926647245</v>
       </c>
       <c r="R23">
-        <v>194.1155024286938</v>
+        <v>1803.945533982521</v>
       </c>
       <c r="S23">
-        <v>0.001178209509221345</v>
+        <v>0.001191438374561819</v>
       </c>
       <c r="T23">
-        <v>0.001178209509221345</v>
+        <v>0.001191438374561819</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.74527855658726</v>
+        <v>2.817396333333333</v>
       </c>
       <c r="H24">
-        <v>2.74527855658726</v>
+        <v>8.452189000000001</v>
       </c>
       <c r="I24">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="J24">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N24">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O24">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P24">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q24">
-        <v>186.8096124983614</v>
+        <v>192.7178767968307</v>
       </c>
       <c r="R24">
-        <v>186.8096124983614</v>
+        <v>1734.460891171476</v>
       </c>
       <c r="S24">
-        <v>0.001133865451783665</v>
+        <v>0.001145546373762308</v>
       </c>
       <c r="T24">
-        <v>0.001133865451783665</v>
+        <v>0.001145546373762308</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.74527855658726</v>
+        <v>2.817396333333333</v>
       </c>
       <c r="H25">
-        <v>2.74527855658726</v>
+        <v>8.452189000000001</v>
       </c>
       <c r="I25">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="J25">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N25">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O25">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P25">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q25">
-        <v>204.0247917277059</v>
+        <v>209.4654526038991</v>
       </c>
       <c r="R25">
-        <v>204.0247917277059</v>
+        <v>1885.189073435091</v>
       </c>
       <c r="S25">
-        <v>0.00123835524068352</v>
+        <v>0.001245096685616989</v>
       </c>
       <c r="T25">
-        <v>0.00123835524068352</v>
+        <v>0.001245096685616989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.74527855658726</v>
+        <v>2.817396333333333</v>
       </c>
       <c r="H26">
-        <v>2.74527855658726</v>
+        <v>8.452189000000001</v>
       </c>
       <c r="I26">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="J26">
-        <v>0.00483778653253996</v>
+        <v>0.004913375379562114</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N26">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O26">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P26">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q26">
-        <v>51.91449424882816</v>
+        <v>57.65865738889856</v>
       </c>
       <c r="R26">
-        <v>51.91449424882816</v>
+        <v>518.927916500087</v>
       </c>
       <c r="S26">
-        <v>0.000315101833831406</v>
+        <v>0.0003427324282816209</v>
       </c>
       <c r="T26">
-        <v>0.000315101833831406</v>
+        <v>0.0003427324282816209</v>
       </c>
     </row>
   </sheetData>
